--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27612"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8CE33D-718B-4610-ACB3-06D58042F598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44F11361-42D7-4FEB-AE9D-04CCA35A8FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="132">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -94,7 +94,7 @@
     <t>Student 2:</t>
   </si>
   <si>
-    <t>Corocaesc Mihai</t>
+    <t>Corocaescu Mihai</t>
   </si>
   <si>
     <t>Student 3:</t>
@@ -178,6 +178,9 @@
     <t>1-&gt;2F-&gt;6T-&gt;7-&gt;9</t>
   </si>
   <si>
+    <t>nu se pot implementa</t>
+  </si>
+  <si>
     <t>F02_P03</t>
   </si>
   <si>
@@ -308,28 +311,13 @@
     <t>x</t>
   </si>
   <si>
-    <t>F01_TC02</t>
+    <t>F02_TC03</t>
   </si>
   <si>
     <t>parts=[] searchItem="far"</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>1,2,6,7,9</t>
-  </si>
-  <si>
-    <t>F02_TC03</t>
-  </si>
-  <si>
     <t>1,2,3,6,8,9</t>
-  </si>
-  <si>
-    <t>F02_TC04</t>
-  </si>
-  <si>
-    <t>1,2,3,6,7,9</t>
   </si>
   <si>
     <t>F02_TC05</t>
@@ -651,9 +639,6 @@
   </si>
   <si>
     <t>da</t>
-  </si>
-  <si>
-    <t>nu</t>
   </si>
 </sst>
 </file>
@@ -1554,6 +1539,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1566,6 +1556,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1605,9 +1598,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1617,32 +1607,161 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1653,24 +1772,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1680,122 +1781,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -2222,7 +2207,7 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2232,12 +2217,12 @@
   <sheetData>
     <row r="1" spans="2:16">
       <c r="B1" s="10"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="2:16">
       <c r="B2" s="30" t="s">
@@ -2346,34 +2331,34 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="28" t="s">
@@ -2407,10 +2392,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:T24"/>
+  <dimension ref="B1:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="105" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:H21"/>
+    <sheetView topLeftCell="J4" zoomScale="105" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2418,415 +2403,414 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" customWidth="1"/>
     <col min="20" max="20" width="15.5703125" customWidth="1"/>
+    <col min="21" max="21" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
       <c r="B1" s="10"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="Q6" s="40" t="s">
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="Q6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
     </row>
     <row r="8" spans="2:20" ht="14.45" customHeight="1">
-      <c r="B8" s="59" t="e" vm="1">
+      <c r="B8" s="62" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="10"/>
-      <c r="Q8" s="57" t="s">
+      <c r="Q8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
       <c r="T8" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="29"/>
-      <c r="Q9" s="57" t="s">
+      <c r="Q9" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
       <c r="T9" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="48" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="50"/>
-      <c r="Q10" s="57" t="s">
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
+      <c r="Q10" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="57" t="s">
+      <c r="R10" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="S10" s="57"/>
+      <c r="S10" s="47"/>
       <c r="T10" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
-      <c r="Q13" s="40" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
+      <c r="Q13" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="53"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
       <c r="Q15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="R15" s="58" t="s">
+      <c r="R15" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="57"/>
       <c r="Q16" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="R16" s="44" t="s">
+      <c r="R16" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="53"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="57"/>
       <c r="Q17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="44" t="s">
+      <c r="R17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-    </row>
-    <row r="18" spans="2:20">
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="57"/>
       <c r="Q18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="57"/>
+      <c r="Q19" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-    </row>
-    <row r="19" spans="2:20">
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="53"/>
-      <c r="Q19" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="R19" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="53"/>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
       <c r="Q20" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="53"/>
+      <c r="R20" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="57"/>
       <c r="Q21" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-    </row>
-    <row r="22" spans="2:20">
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="53"/>
+      <c r="R21" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="I22" s="55"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="57"/>
       <c r="Q22" s="33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R22" s="122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S22" s="122"/>
       <c r="T22" s="122"/>
     </row>
-    <row r="23" spans="2:20">
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
+    <row r="23" spans="2:21">
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="57"/>
       <c r="Q23" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R23" s="123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S23" s="123"/>
       <c r="T23" s="123"/>
     </row>
-    <row r="24" spans="2:20">
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="56"/>
+    <row r="24" spans="2:21">
+      <c r="I24" s="58"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R18:T18"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="I10:O24"/>
@@ -2839,6 +2823,14 @@
     <mergeCell ref="R22:T22"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R18:T18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2853,8 +2845,8 @@
   </sheetPr>
   <dimension ref="B1:AD18"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="I11" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2885,262 +2877,262 @@
   <sheetData>
     <row r="1" spans="2:30">
       <c r="B1" s="10"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="3" spans="2:30" ht="15">
-      <c r="B3" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
+      <c r="B3" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="5" spans="2:30">
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="2:30" ht="15.6">
-      <c r="B6" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="63" t="s">
+      <c r="B6" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="C6" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="D6" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
+      <c r="E6" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
     </row>
     <row r="7" spans="2:30" ht="15.6" customHeight="1">
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="68" t="s">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="62" t="s">
+      <c r="F7" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="61" t="s">
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
     </row>
     <row r="8" spans="2:30" ht="36.75" customHeight="1">
-      <c r="B8" s="63"/>
-      <c r="C8" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="68" t="s">
+      <c r="B8" s="68"/>
+      <c r="C8" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68" t="s">
+      <c r="D8" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68" t="s">
+      <c r="G8" s="65"/>
+      <c r="H8" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68" t="s">
+      <c r="I8" s="65"/>
+      <c r="J8" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68" t="s">
+      <c r="K8" s="65"/>
+      <c r="L8" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="68"/>
-      <c r="P8" s="62" t="s">
+      <c r="M8" s="65"/>
+      <c r="N8" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="65"/>
+      <c r="P8" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="62" t="s">
+      <c r="Q8" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="V8" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="W8" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="X8" s="61">
+      <c r="R8" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="73">
         <v>0</v>
       </c>
-      <c r="Y8" s="61">
+      <c r="Y8" s="73">
         <v>1</v>
       </c>
-      <c r="Z8" s="61">
+      <c r="Z8" s="73">
         <v>2</v>
       </c>
-      <c r="AA8" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB8" s="61" t="s">
+      <c r="AA8" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="AC8" s="61" t="s">
+      <c r="AB8" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="AD8" s="61" t="s">
+      <c r="AC8" s="73" t="s">
         <v>64</v>
       </c>
+      <c r="AD8" s="73" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="2:30" ht="15.6">
-      <c r="B9" s="63"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="69"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="I9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="K9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="M9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="O9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="61"/>
+        <v>67</v>
+      </c>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
     </row>
     <row r="10" spans="2:30" ht="81.599999999999994" customHeight="1">
       <c r="B10" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N10" s="15"/>
       <c r="O10" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
@@ -3150,7 +3142,7 @@
       <c r="V10" s="34"/>
       <c r="W10" s="34"/>
       <c r="X10" s="35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y10" s="35"/>
       <c r="Z10" s="35"/>
@@ -3159,51 +3151,51 @@
       <c r="AC10" s="35"/>
       <c r="AD10" s="35"/>
     </row>
-    <row r="11" spans="2:30" ht="54.95" customHeight="1">
-      <c r="B11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="12" t="s">
+    <row r="11" spans="2:30" ht="57.95" customHeight="1">
+      <c r="B11" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="38" t="s">
         <v>74</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="F11" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" s="15"/>
-      <c r="J11" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="34"/>
-      <c r="Q11" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
+      <c r="T11" s="36"/>
       <c r="U11" s="34"/>
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
       <c r="X11" s="35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y11" s="35"/>
       <c r="Z11" s="35"/>
@@ -3212,379 +3204,299 @@
       <c r="AC11" s="35"/>
       <c r="AD11" s="35"/>
     </row>
-    <row r="12" spans="2:30" ht="57.95" customHeight="1">
+    <row r="12" spans="2:30" ht="62.1" customHeight="1">
       <c r="B12" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>69</v>
+      <c r="C12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N12" s="15"/>
       <c r="O12" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
-      <c r="R12" s="34" t="s">
-        <v>71</v>
-      </c>
+      <c r="R12" s="34"/>
       <c r="S12" s="34"/>
-      <c r="T12" s="36"/>
+      <c r="T12" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="U12" s="34"/>
       <c r="V12" s="34"/>
       <c r="W12" s="34"/>
-      <c r="X12" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="Z12" s="35"/>
       <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
+      <c r="AB12" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="AC12" s="35"/>
       <c r="AD12" s="35"/>
     </row>
-    <row r="13" spans="2:30" ht="63.6" customHeight="1">
+    <row r="13" spans="2:30" ht="62.1" customHeight="1">
       <c r="B13" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="J13" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="L13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
       <c r="R13" s="34"/>
-      <c r="S13" s="34" t="s">
-        <v>71</v>
-      </c>
+      <c r="S13" s="34"/>
       <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
+      <c r="U13" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="V13" s="34"/>
       <c r="W13" s="34"/>
-      <c r="X13" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="Z13" s="35"/>
       <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
+      <c r="AB13" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="AC13" s="35"/>
       <c r="AD13" s="35"/>
     </row>
-    <row r="14" spans="2:30" ht="62.1" customHeight="1">
+    <row r="14" spans="2:30" ht="60" customHeight="1">
       <c r="B14" s="37" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N14" s="15"/>
       <c r="O14" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P14" s="34"/>
       <c r="Q14" s="34"/>
       <c r="R14" s="34"/>
       <c r="S14" s="34"/>
-      <c r="T14" s="34" t="s">
-        <v>71</v>
-      </c>
+      <c r="T14" s="36"/>
       <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
+      <c r="V14" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="W14" s="34"/>
       <c r="X14" s="35"/>
-      <c r="Y14" s="35" t="s">
-        <v>71</v>
-      </c>
+      <c r="Y14" s="35"/>
       <c r="Z14" s="35"/>
       <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
+      <c r="AB14" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="AC14" s="35"/>
       <c r="AD14" s="35"/>
     </row>
-    <row r="15" spans="2:30" ht="62.1" customHeight="1">
+    <row r="15" spans="2:30" ht="65.099999999999994" customHeight="1">
       <c r="B15" s="37" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
       <c r="R15" s="34"/>
       <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34" t="s">
-        <v>71</v>
-      </c>
+      <c r="T15" s="36"/>
+      <c r="U15" s="34"/>
       <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
+      <c r="W15" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="X15" s="35"/>
-      <c r="Y15" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
+      <c r="AB15" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="AC15" s="35"/>
       <c r="AD15" s="35"/>
     </row>
-    <row r="16" spans="2:30" ht="60" customHeight="1">
+    <row r="16" spans="2:30" ht="56.25" customHeight="1">
       <c r="B16" s="37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>89</v>
-      </c>
       <c r="F16" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15" t="s">
-        <v>71</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15" t="s">
-        <v>71</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="15"/>
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
       <c r="R16" s="34"/>
       <c r="S16" s="34"/>
       <c r="T16" s="36"/>
       <c r="U16" s="34"/>
-      <c r="V16" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="W16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="X16" s="35"/>
       <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
+      <c r="Z16" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="AA16" s="35"/>
       <c r="AB16" s="35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC16" s="35"/>
       <c r="AD16" s="35"/>
     </row>
-    <row r="17" spans="2:30" ht="65.099999999999994" customHeight="1">
-      <c r="B17" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-    </row>
-    <row r="18" spans="2:30" ht="56.25" customHeight="1">
-      <c r="B18" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="O18" s="15"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-    </row>
+    <row r="17" ht="15"/>
+    <row r="18" ht="15"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:O7"/>
     <mergeCell ref="P7:W7"/>
@@ -3601,22 +3513,6 @@
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3631,7 +3527,7 @@
   <dimension ref="B1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -3651,259 +3547,259 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="B1" s="10"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+    </row>
+    <row r="4" spans="2:14" ht="15">
+      <c r="B4" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-    </row>
-    <row r="4" spans="2:14" ht="15">
-      <c r="B4" s="71" t="s">
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="L4" s="79"/>
+    </row>
+    <row r="5" spans="2:14" ht="15">
+      <c r="B5" s="118"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="74"/>
-    </row>
-    <row r="5" spans="2:14" ht="15">
-      <c r="B5" s="72"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="110"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="76"/>
       <c r="K5" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15">
       <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="107" t="s">
-        <v>106</v>
+      <c r="C6" s="84" t="s">
+        <v>102</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="105" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="106"/>
+        <v>68</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="88"/>
+      <c r="J6" s="89"/>
       <c r="K6" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L6" s="118" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="14.45" customHeight="1">
       <c r="B7" s="16">
         <v>2</v>
       </c>
-      <c r="C7" s="108"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="74"/>
+        <v>73</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="78"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="78"/>
+      <c r="J7" s="79"/>
       <c r="K7" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="118" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="14.45" customHeight="1">
       <c r="B8" s="16">
         <v>3</v>
       </c>
-      <c r="C8" s="108"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="77"/>
-      <c r="J8" s="74"/>
+        <v>76</v>
+      </c>
+      <c r="E8" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="78"/>
+      <c r="J8" s="79"/>
       <c r="K8" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L8" s="118" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="14.45" customHeight="1">
       <c r="B9" s="16">
         <v>4</v>
       </c>
-      <c r="C9" s="108"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="78"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" s="118" t="s">
-        <v>113</v>
+      <c r="L9" s="40" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="35.25" customHeight="1">
       <c r="B10" s="16">
         <v>5</v>
       </c>
-      <c r="C10" s="108"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="102" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="113" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="77"/>
-      <c r="J10" s="74"/>
+        <v>83</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
       <c r="K10" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" s="118" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="33.75" customHeight="1">
       <c r="B11" s="16">
         <v>6</v>
       </c>
-      <c r="C11" s="108"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" s="77"/>
-      <c r="J11" s="74"/>
+        <v>86</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
       <c r="K11" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="118" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="36.75" customHeight="1">
       <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="109"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="116"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="110"/>
+        <v>89</v>
+      </c>
+      <c r="E12" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="95"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="75"/>
       <c r="J12" s="76"/>
       <c r="K12" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="L12" s="118" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15">
@@ -3915,83 +3811,83 @@
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="2:14" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="83"/>
+      <c r="H15" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" s="115"/>
+    </row>
+    <row r="16" spans="2:14" ht="110.25" customHeight="1" thickTop="1">
+      <c r="B16" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="103" t="s">
+      <c r="C16" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="104"/>
-      <c r="H15" s="84" t="s">
+      <c r="D16" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="91" t="s">
+      <c r="E16" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="N15" s="92"/>
-    </row>
-    <row r="16" spans="2:14" ht="110.25" customHeight="1" thickTop="1">
-      <c r="B16" s="90" t="s">
+      <c r="F16" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="G16" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="H16" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="94" t="s">
+      <c r="I16" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="96" t="s">
+      <c r="L16" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="98" t="s">
+      <c r="M16" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="99" t="s">
+      <c r="N16" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="K16" s="101" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="M16" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="N16" s="78" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="93"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="96"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="99"/>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="21">
@@ -4004,17 +3900,17 @@
       <c r="D18" s="19">
         <v>0</v>
       </c>
-      <c r="E18" s="120">
+      <c r="E18" s="41">
         <v>1</v>
       </c>
       <c r="F18" s="20">
         <v>0</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I18" s="21">
         <f>SUM(J18:K18)</f>
@@ -4026,11 +3922,11 @@
       <c r="K18" s="22">
         <v>0</v>
       </c>
-      <c r="L18" s="121">
+      <c r="L18" s="42">
         <v>1</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N18" s="23">
         <f>C18</f>
@@ -4039,34 +3935,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="J16:J17"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="M16:M17"/>
@@ -4080,6 +3948,34 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4087,6 +3983,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -4230,15 +4135,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4246,11 +4142,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
